--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="600" windowWidth="20175" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="600" windowWidth="20175" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="patches_for_def" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="780">
   <si>
     <t>patches for wordforms</t>
   </si>
@@ -12103,6 +12103,47 @@
       </rPr>
       <t>} , {enwiki:Osama bin Laden}</t>
     </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>protoanthropology%1:09:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>the study humans prior to the invention of writing</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the study </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> humans prior to the invention of writing</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -12232,7 +12273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -12266,7 +12307,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -12567,8 +12607,8 @@
   </sheetPr>
   <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15673,22 +15713,44 @@
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A465" s="23"/>
-      <c r="B465" s="9"/>
+      <c r="A465" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A466" s="18"/>
-      <c r="B466" s="9"/>
+      <c r="A466" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B466" s="9" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A467" s="18"/>
+      <c r="A467" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B467" s="9" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A468" s="19"/>
+      <c r="A468" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B468" s="9" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A469" s="18"/>
-      <c r="B469" s="9"/>
+      <c r="A469" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B469" s="9" t="s">
+        <v>779</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -15701,7 +15763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+    <sheetView topLeftCell="A512" workbookViewId="0">
       <selection activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>

--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="809">
   <si>
     <t>patches for wordforms</t>
   </si>
@@ -1897,31 +1897,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>or fully aware</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>; "I keep track of the stock market developments"</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">keep informed of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>fully aware</t>
     </r>
     <r>
@@ -12041,10 +12016,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>simple typo ...."keep informed of or fully awarer of" could be better?</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>Osama_bin_Laden%1:18:00::</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -12139,6 +12110,288 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> humans prior to the invention of writing</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>keep_track%2:31:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>keep informed of fully aware; "I keep track of the stock market developments"</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keep informed of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or fully aware of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; "I keep track of the stock market developments"</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{url: http://wnpt.brlcloud.com/wn/synset?id=00595134-v}, daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Nicaraguan%3:01:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>of or relating to Nicaragua or is people; "Nicaraguan earthquakes"</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">of or relating to Nicaragua or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>its</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> people; "Nicaraguan earthquakes"</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{url: http://wnpt.brlcloud.com/wn/synset?id=03090939-a}, daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{ref: http://wnpt.brlcloud.com/wn/synset?id=02227127-v}, daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keep informed of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or fully aware of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>; "I keep track of the stock market developments"</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>simple typo ...</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>handed%5:00:00:unsuccessful:00</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>having acquired or gained nothing; "the returned from the negotiations empty-handed"</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>having acquired or gained nothing; "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>they</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> returned from the negotiations empty-handed"</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{url: http://wnpt.brlcloud.com/wn/synset?id=02334561-a}, daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo.</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>pigman%1:18:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>a herder or swine</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a herder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ｆ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> swine</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{url: http://wnpt.brlcloud.com/wn/synset?id=10683593-n}, daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Immigration_and_Naturalization_Service%1:14:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>an agency in the Department of Justice that enforces laws and regulations for the admission of foreign-born persons to the United States</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>former</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> agency in the Department of Justice that enforces laws and regulations for the admission of foreign-born persons to the United States</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{enwiki:Immigration and Naturalization Service} INS was splitted into three and transferred from the Department of Justice to Department of Homeland Security. The holonym of this synset refers to Department of Homeland Security and at the sametime, def refers to Department of Justice. This is inconsistancy and I think adding "former" could be the minimal way to solve this. There are many troubles in the hyponyms of "Department". </t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>house_painter%1:18:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>a painter of houses a similar buildings</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a painter of houses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> similar buildings</t>
     </r>
     <phoneticPr fontId="9"/>
   </si>
@@ -12155,7 +12408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -12241,6 +12494,14 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12605,10 +12866,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B470" sqref="B470"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A506" sqref="A506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12642,15 +12903,15 @@
         <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75">
@@ -12687,10 +12948,10 @@
     </row>
     <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75">
@@ -12727,10 +12988,10 @@
     </row>
     <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>765</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75">
@@ -12858,7 +13119,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="12.75">
@@ -12938,7 +13199,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="12.75">
@@ -13838,7 +14099,7 @@
         <v>16</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1">
@@ -13846,7 +14107,7 @@
         <v>25</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>166</v>
+        <v>788</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1">
@@ -13854,7 +14115,7 @@
         <v>111</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1">
@@ -13862,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>275</v>
+        <v>782</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1">
@@ -13870,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1">
@@ -13878,7 +14139,7 @@
         <v>16</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1">
@@ -13886,7 +14147,7 @@
         <v>25</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1">
@@ -13894,7 +14155,7 @@
         <v>111</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1">
@@ -13902,7 +14163,7 @@
         <v>10</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>275</v>
+        <v>787</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1">
@@ -13910,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C195" s="14"/>
     </row>
@@ -13919,7 +14180,7 @@
         <v>16</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1">
@@ -13927,7 +14188,7 @@
         <v>25</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1">
@@ -13935,7 +14196,7 @@
         <v>111</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1">
@@ -13943,7 +14204,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1">
@@ -13951,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1">
@@ -13959,7 +14220,7 @@
         <v>16</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1">
@@ -13967,7 +14228,7 @@
         <v>25</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1">
@@ -13975,7 +14236,7 @@
         <v>111</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1">
@@ -13983,7 +14244,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1">
@@ -13991,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1">
@@ -13999,7 +14260,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1">
@@ -14007,7 +14268,7 @@
         <v>25</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1">
@@ -14015,7 +14276,7 @@
         <v>111</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1">
@@ -14023,7 +14284,7 @@
         <v>10</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1">
@@ -14031,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1">
@@ -14039,7 +14300,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1">
@@ -14047,7 +14308,7 @@
         <v>25</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1">
@@ -14055,7 +14316,7 @@
         <v>111</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1">
@@ -14063,7 +14324,7 @@
         <v>10</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1">
@@ -14071,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1">
@@ -14079,7 +14340,7 @@
         <v>16</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1">
@@ -14087,7 +14348,7 @@
         <v>25</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="25.5" customHeight="1">
@@ -14095,7 +14356,7 @@
         <v>111</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1">
@@ -14103,7 +14364,7 @@
         <v>10</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1">
@@ -14111,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1">
@@ -14119,7 +14380,7 @@
         <v>16</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1">
@@ -14127,7 +14388,7 @@
         <v>25</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1">
@@ -14135,7 +14396,7 @@
         <v>111</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1">
@@ -14143,7 +14404,7 @@
         <v>10</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1">
@@ -14151,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1">
@@ -14159,7 +14420,7 @@
         <v>16</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1">
@@ -14167,7 +14428,7 @@
         <v>25</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1">
@@ -14175,7 +14436,7 @@
         <v>111</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1">
@@ -14191,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1">
@@ -14199,7 +14460,7 @@
         <v>16</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1">
@@ -14207,7 +14468,7 @@
         <v>25</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1">
@@ -14215,7 +14476,7 @@
         <v>111</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1">
@@ -14223,7 +14484,7 @@
         <v>10</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1">
@@ -14231,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1">
@@ -14239,7 +14500,7 @@
         <v>16</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1">
@@ -14247,7 +14508,7 @@
         <v>25</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1">
@@ -14255,7 +14516,7 @@
         <v>111</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1">
@@ -14271,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1">
@@ -14279,7 +14540,7 @@
         <v>16</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1">
@@ -14287,7 +14548,7 @@
         <v>25</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1">
@@ -14295,7 +14556,7 @@
         <v>111</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1">
@@ -14311,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1">
@@ -14319,7 +14580,7 @@
         <v>16</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1">
@@ -14327,7 +14588,7 @@
         <v>25</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1">
@@ -14335,7 +14596,7 @@
         <v>111</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1">
@@ -14351,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1">
@@ -14359,7 +14620,7 @@
         <v>16</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1">
@@ -14367,7 +14628,7 @@
         <v>25</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1">
@@ -14375,7 +14636,7 @@
         <v>111</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1">
@@ -14383,7 +14644,7 @@
         <v>10</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1">
@@ -14391,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1">
@@ -14399,7 +14660,7 @@
         <v>16</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1">
@@ -14407,7 +14668,7 @@
         <v>25</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1">
@@ -14415,7 +14676,7 @@
         <v>111</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1">
@@ -14423,7 +14684,7 @@
         <v>10</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1">
@@ -14431,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1">
@@ -14439,7 +14700,7 @@
         <v>16</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1">
@@ -14447,7 +14708,7 @@
         <v>25</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1">
@@ -14455,7 +14716,7 @@
         <v>111</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1">
@@ -14471,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1">
@@ -14479,7 +14740,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1">
@@ -14487,7 +14748,7 @@
         <v>25</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1">
@@ -14495,7 +14756,7 @@
         <v>111</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1">
@@ -14511,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1">
@@ -14519,7 +14780,7 @@
         <v>16</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1">
@@ -14527,7 +14788,7 @@
         <v>25</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1">
@@ -14535,7 +14796,7 @@
         <v>111</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1">
@@ -14551,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1">
@@ -14559,7 +14820,7 @@
         <v>16</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1">
@@ -14567,7 +14828,7 @@
         <v>25</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1">
@@ -14575,7 +14836,7 @@
         <v>111</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1">
@@ -14591,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1">
@@ -14599,7 +14860,7 @@
         <v>16</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1">
@@ -14607,7 +14868,7 @@
         <v>25</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1">
@@ -14615,7 +14876,7 @@
         <v>111</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1">
@@ -14631,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="15.75" customHeight="1">
@@ -14639,7 +14900,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="15.75" customHeight="1">
@@ -14647,7 +14908,7 @@
         <v>25</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="15.75" customHeight="1">
@@ -14655,7 +14916,7 @@
         <v>111</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="15.75" customHeight="1">
@@ -14671,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="15.75" customHeight="1">
@@ -14679,7 +14940,7 @@
         <v>16</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="15.75" customHeight="1">
@@ -14687,7 +14948,7 @@
         <v>25</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="15.75" customHeight="1">
@@ -14695,7 +14956,7 @@
         <v>111</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="15.75" customHeight="1">
@@ -14711,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="15.75" customHeight="1">
@@ -14719,7 +14980,7 @@
         <v>16</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="15.75" customHeight="1">
@@ -14727,7 +14988,7 @@
         <v>25</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="15.75" customHeight="1">
@@ -14735,7 +14996,7 @@
         <v>111</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="15.75" customHeight="1">
@@ -14751,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="15.75" customHeight="1">
@@ -14759,7 +15020,7 @@
         <v>16</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="15.75" customHeight="1">
@@ -14767,7 +15028,7 @@
         <v>25</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="15.75" customHeight="1">
@@ -14775,7 +15036,7 @@
         <v>111</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="15.75" customHeight="1">
@@ -14791,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="15.75" customHeight="1">
@@ -14799,7 +15060,7 @@
         <v>16</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="15.75" customHeight="1">
@@ -14807,7 +15068,7 @@
         <v>25</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="25.5" customHeight="1">
@@ -14815,7 +15076,7 @@
         <v>111</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="15.75" customHeight="1">
@@ -14823,7 +15084,7 @@
         <v>10</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="15.75" customHeight="1">
@@ -14831,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="15.75" customHeight="1">
@@ -14839,7 +15100,7 @@
         <v>16</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="15.75" customHeight="1">
@@ -14847,7 +15108,7 @@
         <v>25</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="42" customHeight="1">
@@ -14855,7 +15116,7 @@
         <v>111</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="15.75" customHeight="1">
@@ -14871,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="15.75" customHeight="1">
@@ -14879,7 +15140,7 @@
         <v>16</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="15.75" customHeight="1">
@@ -14887,7 +15148,7 @@
         <v>25</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="15.75" customHeight="1">
@@ -14895,7 +15156,7 @@
         <v>111</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="15.75" customHeight="1">
@@ -14911,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="15.75" customHeight="1">
@@ -14919,7 +15180,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="15.75" customHeight="1">
@@ -14927,7 +15188,7 @@
         <v>25</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="15.75" customHeight="1">
@@ -14935,7 +15196,7 @@
         <v>111</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="15.75" customHeight="1">
@@ -14951,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="15.75" customHeight="1">
@@ -14959,7 +15220,7 @@
         <v>16</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="15.75" customHeight="1">
@@ -14967,7 +15228,7 @@
         <v>25</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="15.75" customHeight="1">
@@ -14975,7 +15236,7 @@
         <v>111</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="15.75" customHeight="1">
@@ -14991,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="15.75" customHeight="1">
@@ -14999,7 +15260,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="15.75" customHeight="1">
@@ -15007,7 +15268,7 @@
         <v>25</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="15.75" customHeight="1">
@@ -15015,7 +15276,7 @@
         <v>111</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="15.75" customHeight="1">
@@ -15031,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="15.75" customHeight="1">
@@ -15039,7 +15300,7 @@
         <v>16</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="15.75" customHeight="1">
@@ -15047,7 +15308,7 @@
         <v>25</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="15.75" customHeight="1">
@@ -15055,7 +15316,7 @@
         <v>111</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="15.75" customHeight="1">
@@ -15071,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="15.75" customHeight="1">
@@ -15079,7 +15340,7 @@
         <v>16</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="15.75" customHeight="1">
@@ -15087,7 +15348,7 @@
         <v>25</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="15.75" customHeight="1">
@@ -15095,7 +15356,7 @@
         <v>111</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="15.75" customHeight="1">
@@ -15111,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="15.75" customHeight="1">
@@ -15119,7 +15380,7 @@
         <v>16</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="15.75" customHeight="1">
@@ -15127,7 +15388,7 @@
         <v>25</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="15.75" customHeight="1">
@@ -15135,7 +15396,7 @@
         <v>111</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="15.75" customHeight="1">
@@ -15151,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="15.75" customHeight="1">
@@ -15159,7 +15420,7 @@
         <v>16</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="15.75" customHeight="1">
@@ -15167,7 +15428,7 @@
         <v>25</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="15.75" customHeight="1">
@@ -15175,7 +15436,7 @@
         <v>111</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="15.75" customHeight="1">
@@ -15191,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="15.75" customHeight="1">
@@ -15199,7 +15460,7 @@
         <v>16</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="15.75" customHeight="1">
@@ -15207,7 +15468,7 @@
         <v>25</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="15.75" customHeight="1">
@@ -15215,7 +15476,7 @@
         <v>111</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="15.75" customHeight="1">
@@ -15231,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="15.75" customHeight="1">
@@ -15239,7 +15500,7 @@
         <v>16</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1">
@@ -15247,7 +15508,7 @@
         <v>25</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1">
@@ -15255,7 +15516,7 @@
         <v>111</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1">
@@ -15271,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="15.75" customHeight="1">
@@ -15279,7 +15540,7 @@
         <v>16</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1">
@@ -15287,7 +15548,7 @@
         <v>25</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1">
@@ -15295,7 +15556,7 @@
         <v>111</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1">
@@ -15311,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1">
@@ -15319,7 +15580,7 @@
         <v>16</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1">
@@ -15327,7 +15588,7 @@
         <v>25</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1">
@@ -15335,7 +15596,7 @@
         <v>111</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1">
@@ -15351,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="15.75" customHeight="1">
@@ -15359,7 +15620,7 @@
         <v>16</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="15.75" customHeight="1">
@@ -15367,7 +15628,7 @@
         <v>25</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1">
@@ -15375,7 +15636,7 @@
         <v>111</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1">
@@ -15383,7 +15644,7 @@
         <v>10</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1">
@@ -15391,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1">
@@ -15399,7 +15660,7 @@
         <v>16</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="15.75" customHeight="1">
@@ -15407,7 +15668,7 @@
         <v>25</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1">
@@ -15415,7 +15676,7 @@
         <v>111</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="15.75" customHeight="1">
@@ -15431,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1">
@@ -15439,7 +15700,7 @@
         <v>16</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1">
@@ -15447,7 +15708,7 @@
         <v>25</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="15.75" customHeight="1">
@@ -15455,7 +15716,7 @@
         <v>111</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="15.75" customHeight="1">
@@ -15471,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="15.75" customHeight="1">
@@ -15479,7 +15740,7 @@
         <v>16</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1">
@@ -15487,7 +15748,7 @@
         <v>25</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1">
@@ -15495,7 +15756,7 @@
         <v>111</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1">
@@ -15503,7 +15764,7 @@
         <v>10</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="15.75" customHeight="1">
@@ -15511,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1">
@@ -15519,7 +15780,7 @@
         <v>16</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1">
@@ -15527,7 +15788,7 @@
         <v>25</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="15.75" customHeight="1">
@@ -15535,7 +15796,7 @@
         <v>111</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="15.75" customHeight="1">
@@ -15551,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="15.75" customHeight="1">
@@ -15559,7 +15820,7 @@
         <v>16</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1">
@@ -15567,7 +15828,7 @@
         <v>25</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1">
@@ -15575,7 +15836,7 @@
         <v>111</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="15.75" customHeight="1">
@@ -15583,7 +15844,7 @@
         <v>10</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="15.75" customHeight="1">
@@ -15591,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="15.75" customHeight="1">
@@ -15599,7 +15860,7 @@
         <v>16</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="15.75" customHeight="1">
@@ -15607,7 +15868,7 @@
         <v>25</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="15.75" customHeight="1">
@@ -15615,7 +15876,7 @@
         <v>111</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="15.75" customHeight="1">
@@ -15634,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="15.75" customHeight="1">
@@ -15642,7 +15903,7 @@
         <v>16</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="15.75" customHeight="1">
@@ -15650,7 +15911,7 @@
         <v>25</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1">
@@ -15658,7 +15919,7 @@
         <v>111</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="15.75" customHeight="1">
@@ -15674,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1">
@@ -15682,7 +15943,7 @@
         <v>16</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="15.75" customHeight="1">
@@ -15690,7 +15951,7 @@
         <v>25</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="15.75" customHeight="1">
@@ -15698,7 +15959,7 @@
         <v>111</v>
       </c>
       <c r="B462" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="15.75" customHeight="1">
@@ -15717,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1">
@@ -15725,7 +15986,7 @@
         <v>16</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1">
@@ -15733,7 +15994,7 @@
         <v>25</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1">
@@ -15741,7 +16002,7 @@
         <v>111</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1">
@@ -15749,7 +16010,247 @@
         <v>10</v>
       </c>
       <c r="B469" s="9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A471" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A472" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B472" s="9" t="s">
         <v>779</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A473" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B473" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A474" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B474" s="9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A475" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A477" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A478" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A479" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A480" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B480" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A481" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A483" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A484" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B484" s="9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A485" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A486" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A487" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A489" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A490" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B490" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A491" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A492" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A493" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A495" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A496" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A497" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A498" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A499" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A501" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A502" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A503" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A504" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A505" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -15823,7 +16324,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -15831,7 +16332,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -15839,7 +16340,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -15847,7 +16348,7 @@
         <v>136</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -15863,7 +16364,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -15871,7 +16372,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -15879,7 +16380,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -15887,7 +16388,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -15903,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -15911,7 +16412,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -15919,7 +16420,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -15927,7 +16428,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -15935,7 +16436,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -15943,7 +16444,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -15951,7 +16452,7 @@
         <v>16</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -15959,7 +16460,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -15967,7 +16468,7 @@
         <v>136</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -15975,7 +16476,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -15983,7 +16484,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -15991,7 +16492,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -15999,7 +16500,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -16007,7 +16508,7 @@
         <v>136</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -16015,7 +16516,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -16023,7 +16524,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -16031,7 +16532,7 @@
         <v>16</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -16039,7 +16540,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -16047,7 +16548,7 @@
         <v>136</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -16055,7 +16556,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -16063,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -16071,7 +16572,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -16079,7 +16580,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -16087,7 +16588,7 @@
         <v>136</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -16095,7 +16596,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -16103,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -16111,7 +16612,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -16119,7 +16620,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -16127,7 +16628,7 @@
         <v>136</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -16135,7 +16636,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -16143,7 +16644,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -16151,7 +16652,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -16159,7 +16660,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -16167,7 +16668,7 @@
         <v>136</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16183,7 +16684,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -16191,7 +16692,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -16199,7 +16700,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -16207,7 +16708,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -16223,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -16231,7 +16732,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -16239,7 +16740,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -16247,7 +16748,7 @@
         <v>136</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -16263,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16271,7 +16772,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16279,7 +16780,7 @@
         <v>25</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -16287,7 +16788,7 @@
         <v>136</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -16303,7 +16804,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -16311,7 +16812,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -16319,7 +16820,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -16327,7 +16828,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -16343,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -16351,7 +16852,7 @@
         <v>16</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -16359,7 +16860,7 @@
         <v>25</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -16367,7 +16868,7 @@
         <v>136</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -16383,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -16391,7 +16892,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -16399,7 +16900,7 @@
         <v>25</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -16407,7 +16908,7 @@
         <v>136</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -16423,7 +16924,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -16431,7 +16932,7 @@
         <v>16</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -16439,7 +16940,7 @@
         <v>25</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -16447,7 +16948,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -16463,7 +16964,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -16471,7 +16972,7 @@
         <v>16</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -16479,7 +16980,7 @@
         <v>25</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -16487,7 +16988,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -16503,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -16511,7 +17012,7 @@
         <v>16</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -16519,7 +17020,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -16527,7 +17028,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -16543,7 +17044,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -16551,7 +17052,7 @@
         <v>16</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -16559,7 +17060,7 @@
         <v>25</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -16567,7 +17068,7 @@
         <v>136</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -16583,7 +17084,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -16591,7 +17092,7 @@
         <v>16</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -16599,7 +17100,7 @@
         <v>25</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -16607,7 +17108,7 @@
         <v>136</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -16623,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -16631,7 +17132,7 @@
         <v>16</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -16639,7 +17140,7 @@
         <v>25</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -16647,7 +17148,7 @@
         <v>136</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -16663,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -16671,7 +17172,7 @@
         <v>16</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -16679,7 +17180,7 @@
         <v>25</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -16687,7 +17188,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -16703,7 +17204,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -16711,7 +17212,7 @@
         <v>16</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -16719,7 +17220,7 @@
         <v>25</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -16727,7 +17228,7 @@
         <v>136</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -16743,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -16751,7 +17252,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -16759,7 +17260,7 @@
         <v>25</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -16767,7 +17268,7 @@
         <v>136</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -16783,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -16791,7 +17292,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -16799,7 +17300,7 @@
         <v>25</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -16807,7 +17308,7 @@
         <v>136</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -16823,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -16831,7 +17332,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -16839,7 +17340,7 @@
         <v>25</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -16847,7 +17348,7 @@
         <v>136</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -16863,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -16871,7 +17372,7 @@
         <v>16</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -16879,7 +17380,7 @@
         <v>25</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -16887,7 +17388,7 @@
         <v>136</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -16903,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -16911,7 +17412,7 @@
         <v>16</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -16919,7 +17420,7 @@
         <v>25</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -16927,7 +17428,7 @@
         <v>136</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -16943,7 +17444,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -16951,7 +17452,7 @@
         <v>16</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -16959,7 +17460,7 @@
         <v>25</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -16967,7 +17468,7 @@
         <v>136</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -16983,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -16991,7 +17492,7 @@
         <v>16</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -16999,7 +17500,7 @@
         <v>25</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -17007,7 +17508,7 @@
         <v>136</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -17023,7 +17524,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -17031,7 +17532,7 @@
         <v>16</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -17039,7 +17540,7 @@
         <v>25</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -17047,7 +17548,7 @@
         <v>136</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -17063,7 +17564,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -17071,7 +17572,7 @@
         <v>16</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -17079,7 +17580,7 @@
         <v>25</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -17087,7 +17588,7 @@
         <v>136</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -17103,7 +17604,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -17111,7 +17612,7 @@
         <v>16</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -17119,7 +17620,7 @@
         <v>25</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -17127,7 +17628,7 @@
         <v>136</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -17143,7 +17644,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -17151,7 +17652,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -17159,7 +17660,7 @@
         <v>25</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -17167,7 +17668,7 @@
         <v>136</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -17183,7 +17684,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -17191,7 +17692,7 @@
         <v>16</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -17199,7 +17700,7 @@
         <v>25</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -17207,7 +17708,7 @@
         <v>136</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -17223,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -17231,7 +17732,7 @@
         <v>16</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -17239,7 +17740,7 @@
         <v>25</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -17247,7 +17748,7 @@
         <v>136</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -17263,7 +17764,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -17271,7 +17772,7 @@
         <v>16</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -17279,7 +17780,7 @@
         <v>25</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -17287,7 +17788,7 @@
         <v>136</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -17303,7 +17804,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -17311,7 +17812,7 @@
         <v>16</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -17319,7 +17820,7 @@
         <v>25</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -17327,7 +17828,7 @@
         <v>136</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -17343,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -17351,7 +17852,7 @@
         <v>16</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -17359,7 +17860,7 @@
         <v>25</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -17367,7 +17868,7 @@
         <v>136</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -17383,7 +17884,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -17391,7 +17892,7 @@
         <v>16</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -17399,7 +17900,7 @@
         <v>25</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -17407,7 +17908,7 @@
         <v>136</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -17423,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -17431,7 +17932,7 @@
         <v>16</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -17439,7 +17940,7 @@
         <v>25</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -17447,7 +17948,7 @@
         <v>136</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -17463,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -17471,7 +17972,7 @@
         <v>16</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -17479,7 +17980,7 @@
         <v>25</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -17487,7 +17988,7 @@
         <v>136</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -17503,7 +18004,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -17511,7 +18012,7 @@
         <v>16</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -17519,7 +18020,7 @@
         <v>25</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -17527,7 +18028,7 @@
         <v>136</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -17543,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -17551,7 +18052,7 @@
         <v>16</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -17559,7 +18060,7 @@
         <v>25</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -17567,7 +18068,7 @@
         <v>136</v>
       </c>
       <c r="B270" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -17583,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -17591,7 +18092,7 @@
         <v>16</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -17599,7 +18100,7 @@
         <v>25</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -17607,7 +18108,7 @@
         <v>136</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -17623,7 +18124,7 @@
         <v>1</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -17631,7 +18132,7 @@
         <v>16</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -17639,7 +18140,7 @@
         <v>25</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -17647,7 +18148,7 @@
         <v>136</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -17663,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -17671,7 +18172,7 @@
         <v>16</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -17679,7 +18180,7 @@
         <v>25</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -17687,7 +18188,7 @@
         <v>136</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -17703,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -17711,7 +18212,7 @@
         <v>16</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -17719,7 +18220,7 @@
         <v>25</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -17727,7 +18228,7 @@
         <v>136</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -17743,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -17751,7 +18252,7 @@
         <v>16</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -17759,7 +18260,7 @@
         <v>25</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -17767,7 +18268,7 @@
         <v>136</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -17783,7 +18284,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -17791,7 +18292,7 @@
         <v>16</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -17799,7 +18300,7 @@
         <v>25</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -17807,7 +18308,7 @@
         <v>136</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -17823,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -17831,7 +18332,7 @@
         <v>16</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -17839,7 +18340,7 @@
         <v>25</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -17847,7 +18348,7 @@
         <v>136</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -17863,7 +18364,7 @@
         <v>1</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -17871,7 +18372,7 @@
         <v>16</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -17879,7 +18380,7 @@
         <v>25</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -17887,7 +18388,7 @@
         <v>136</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -17903,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -17911,7 +18412,7 @@
         <v>16</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -17919,7 +18420,7 @@
         <v>25</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -17927,7 +18428,7 @@
         <v>136</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -17943,7 +18444,7 @@
         <v>1</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -17951,7 +18452,7 @@
         <v>16</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -17959,7 +18460,7 @@
         <v>25</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -17967,7 +18468,7 @@
         <v>136</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -17983,7 +18484,7 @@
         <v>1</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -17991,7 +18492,7 @@
         <v>16</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -17999,7 +18500,7 @@
         <v>25</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -18007,7 +18508,7 @@
         <v>136</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -18023,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -18031,7 +18532,7 @@
         <v>16</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -18039,7 +18540,7 @@
         <v>25</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -18047,7 +18548,7 @@
         <v>136</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -18063,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -18071,7 +18572,7 @@
         <v>16</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -18079,7 +18580,7 @@
         <v>25</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -18087,7 +18588,7 @@
         <v>136</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -18103,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -18111,7 +18612,7 @@
         <v>16</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -18119,7 +18620,7 @@
         <v>25</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -18127,7 +18628,7 @@
         <v>136</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -18143,7 +18644,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -18151,7 +18652,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -18159,7 +18660,7 @@
         <v>25</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -18167,7 +18668,7 @@
         <v>136</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -18183,7 +18684,7 @@
         <v>1</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -18191,7 +18692,7 @@
         <v>16</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -18199,7 +18700,7 @@
         <v>25</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -18207,7 +18708,7 @@
         <v>136</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -18223,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -18231,7 +18732,7 @@
         <v>16</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -18239,7 +18740,7 @@
         <v>25</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -18247,7 +18748,7 @@
         <v>136</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -18263,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -18271,7 +18772,7 @@
         <v>16</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -18279,7 +18780,7 @@
         <v>25</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -18287,7 +18788,7 @@
         <v>136</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -18303,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -18311,7 +18812,7 @@
         <v>16</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -18319,7 +18820,7 @@
         <v>25</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -18327,7 +18828,7 @@
         <v>136</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -18343,7 +18844,7 @@
         <v>1</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -18351,7 +18852,7 @@
         <v>16</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -18359,7 +18860,7 @@
         <v>25</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -18367,7 +18868,7 @@
         <v>136</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -18383,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -18391,7 +18892,7 @@
         <v>16</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -18399,7 +18900,7 @@
         <v>25</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -18407,7 +18908,7 @@
         <v>136</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -18423,7 +18924,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -18431,7 +18932,7 @@
         <v>16</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -18439,7 +18940,7 @@
         <v>25</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -18447,7 +18948,7 @@
         <v>136</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -18463,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -18471,7 +18972,7 @@
         <v>16</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -18479,7 +18980,7 @@
         <v>25</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -18487,7 +18988,7 @@
         <v>136</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -18503,7 +19004,7 @@
         <v>1</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -18511,7 +19012,7 @@
         <v>16</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -18519,7 +19020,7 @@
         <v>25</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -18527,7 +19028,7 @@
         <v>136</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -18543,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -18551,7 +19052,7 @@
         <v>16</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -18559,7 +19060,7 @@
         <v>25</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -18567,7 +19068,7 @@
         <v>136</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -18583,7 +19084,7 @@
         <v>1</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -18591,7 +19092,7 @@
         <v>16</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -18599,7 +19100,7 @@
         <v>25</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -18607,7 +19108,7 @@
         <v>136</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -18623,7 +19124,7 @@
         <v>1</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -18631,7 +19132,7 @@
         <v>16</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -18639,7 +19140,7 @@
         <v>25</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -18647,7 +19148,7 @@
         <v>136</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -18663,7 +19164,7 @@
         <v>1</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -18671,7 +19172,7 @@
         <v>16</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -18679,7 +19180,7 @@
         <v>25</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -18687,7 +19188,7 @@
         <v>136</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -18703,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -18711,7 +19212,7 @@
         <v>16</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -18719,7 +19220,7 @@
         <v>25</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -18727,7 +19228,7 @@
         <v>136</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -18743,7 +19244,7 @@
         <v>1</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -18751,7 +19252,7 @@
         <v>16</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -18759,7 +19260,7 @@
         <v>25</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -18767,7 +19268,7 @@
         <v>136</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -18783,7 +19284,7 @@
         <v>1</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -18791,7 +19292,7 @@
         <v>16</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -18799,7 +19300,7 @@
         <v>25</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -18807,7 +19308,7 @@
         <v>136</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -18823,7 +19324,7 @@
         <v>1</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -18831,7 +19332,7 @@
         <v>16</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -18839,7 +19340,7 @@
         <v>25</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -18847,7 +19348,7 @@
         <v>136</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -18863,7 +19364,7 @@
         <v>1</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -18871,7 +19372,7 @@
         <v>16</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -18879,7 +19380,7 @@
         <v>25</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -18887,7 +19388,7 @@
         <v>136</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -18903,7 +19404,7 @@
         <v>1</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -18911,7 +19412,7 @@
         <v>16</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -18919,7 +19420,7 @@
         <v>25</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -18927,7 +19428,7 @@
         <v>136</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -18943,7 +19444,7 @@
         <v>1</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -18951,7 +19452,7 @@
         <v>16</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -18959,7 +19460,7 @@
         <v>25</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -18967,7 +19468,7 @@
         <v>136</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -18983,7 +19484,7 @@
         <v>1</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -18991,7 +19492,7 @@
         <v>16</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -18999,7 +19500,7 @@
         <v>25</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -19007,7 +19508,7 @@
         <v>136</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -19023,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="B489" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="490" spans="1:2" s="16" customFormat="1" ht="25.5">
@@ -19031,7 +19532,7 @@
         <v>16</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="491" spans="1:2" s="16" customFormat="1" ht="25.5">
@@ -19039,7 +19540,7 @@
         <v>25</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -19047,7 +19548,7 @@
         <v>136</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -19063,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -19071,7 +19572,7 @@
         <v>16</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -19079,7 +19580,7 @@
         <v>25</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -19087,7 +19588,7 @@
         <v>136</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -19103,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -19111,7 +19612,7 @@
         <v>16</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -19119,7 +19620,7 @@
         <v>25</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -19127,7 +19628,7 @@
         <v>136</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -19143,7 +19644,7 @@
         <v>1</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -19151,7 +19652,7 @@
         <v>16</v>
       </c>
       <c r="B508" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -19159,7 +19660,7 @@
         <v>25</v>
       </c>
       <c r="B509" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -19167,7 +19668,7 @@
         <v>136</v>
       </c>
       <c r="B510" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -19183,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="B513" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -19191,7 +19692,7 @@
         <v>16</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -19199,7 +19700,7 @@
         <v>25</v>
       </c>
       <c r="B515" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -19207,7 +19708,7 @@
         <v>136</v>
       </c>
       <c r="B516" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -19223,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="B519" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -19231,7 +19732,7 @@
         <v>16</v>
       </c>
       <c r="B520" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -19239,7 +19740,7 @@
         <v>25</v>
       </c>
       <c r="B521" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -19247,7 +19748,7 @@
         <v>136</v>
       </c>
       <c r="B522" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -19255,7 +19756,7 @@
         <v>10</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -19291,10 +19792,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -19303,7 +19804,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -19311,7 +19812,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -19327,10 +19828,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -19338,7 +19839,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -19359,10 +19860,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -19370,7 +19871,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -19378,7 +19879,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -19391,10 +19892,10 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
@@ -19402,7 +19903,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -19410,7 +19911,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
@@ -19423,10 +19924,10 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -19434,7 +19935,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1">
@@ -19442,7 +19943,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
@@ -19455,10 +19956,10 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
@@ -19466,7 +19967,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
@@ -19474,7 +19975,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
@@ -19487,10 +19988,10 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
@@ -19498,7 +19999,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
@@ -19506,7 +20007,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
@@ -19829,7 +20330,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
@@ -19837,7 +20338,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
@@ -19845,7 +20346,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
@@ -19861,7 +20362,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
@@ -19869,7 +20370,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
@@ -19877,7 +20378,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
@@ -19893,7 +20394,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
@@ -19901,7 +20402,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
@@ -19909,7 +20410,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
@@ -19925,7 +20426,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
@@ -19933,7 +20434,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="28.5" customHeight="1">
@@ -19941,7 +20442,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
@@ -19957,7 +20458,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
@@ -19965,7 +20466,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
@@ -19973,7 +20474,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
@@ -19989,7 +20490,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
@@ -19997,7 +20498,7 @@
         <v>6</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
@@ -20005,7 +20506,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
@@ -20024,7 +20525,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1">
@@ -20032,7 +20533,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1">
@@ -20040,7 +20541,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
@@ -20059,7 +20560,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
@@ -20067,7 +20568,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
@@ -20075,7 +20576,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
@@ -20094,7 +20595,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
@@ -20102,7 +20603,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1">
@@ -20110,7 +20611,7 @@
         <v>8</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1">
@@ -20129,7 +20630,7 @@
         <v>4</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1">
@@ -20137,7 +20638,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1">
@@ -20145,7 +20646,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1">
@@ -20164,7 +20665,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1">
@@ -20172,7 +20673,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1">
@@ -20180,7 +20681,7 @@
         <v>8</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1">
@@ -20199,7 +20700,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1">
@@ -20207,7 +20708,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1">
@@ -20215,7 +20716,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1">
@@ -20231,7 +20732,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1">
@@ -20239,7 +20740,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1">
@@ -20247,7 +20748,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1">
@@ -20263,7 +20764,7 @@
         <v>6</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1">
@@ -20271,7 +20772,7 @@
         <v>8</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1">
@@ -20307,7 +20808,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20315,7 +20816,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20323,7 +20824,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -20331,7 +20832,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20339,7 +20840,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20347,7 +20848,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20355,7 +20856,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20363,7 +20864,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20371,7 +20872,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20379,7 +20880,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -20407,7 +20908,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -20460,7 +20961,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>63</v>
@@ -20468,7 +20969,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>65</v>
@@ -20476,7 +20977,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>68</v>
@@ -20484,15 +20985,15 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>

--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -12118,10 +12118,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>daiki.nomura</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>keep_track%2:31:00::</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -12359,10 +12355,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t xml:space="preserve">{enwiki:Immigration and Naturalization Service} INS was splitted into three and transferred from the Department of Justice to Department of Homeland Security. The holonym of this synset refers to Department of Homeland Security and at the sametime, def refers to Department of Justice. This is inconsistancy and I think adding "former" could be the minimal way to solve this. There are many troubles in the hyponyms of "Department". </t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>house_painter%1:18:00::</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -12400,7 +12392,15 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>daiki.nomura</t>
+    <t>daiki.nomura, EW_PULLED</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura, EW_PULL...</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{enwiki:Immigration and Naturalization Service} INS was transferred from the Department of Justice to Department of Homeland Security(2003). The holonym of this synset is already Department of Homeland Security but def says it is in the Department of Justice. This is inconsistancy and I think adding "former" could be the minimal way to solve this.</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -12868,8 +12868,8 @@
   </sheetPr>
   <dimension ref="A1:C505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A506" sqref="A506"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14107,7 +14107,7 @@
         <v>25</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1">
@@ -14115,7 +14115,7 @@
         <v>111</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1">
@@ -14123,7 +14123,7 @@
         <v>10</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1">
@@ -14163,7 +14163,7 @@
         <v>10</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1">
@@ -16010,7 +16010,7 @@
         <v>10</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1">
@@ -16018,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="15.75" customHeight="1">
@@ -16026,7 +16026,7 @@
         <v>16</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="15.75" customHeight="1">
@@ -16034,7 +16034,7 @@
         <v>25</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="15.75" customHeight="1">
@@ -16042,7 +16042,7 @@
         <v>111</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="15.75" customHeight="1">
@@ -16050,7 +16050,7 @@
         <v>10</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="15.75" customHeight="1">
@@ -16058,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="15.75" customHeight="1">
@@ -16066,7 +16066,7 @@
         <v>16</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="15.75" customHeight="1">
@@ -16074,7 +16074,7 @@
         <v>25</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="15.75" customHeight="1">
@@ -16082,7 +16082,7 @@
         <v>111</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="15.75" customHeight="1">
@@ -16090,7 +16090,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="15.75" customHeight="1">
@@ -16098,7 +16098,7 @@
         <v>1</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="15.75" customHeight="1">
@@ -16106,7 +16106,7 @@
         <v>16</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="15.75" customHeight="1">
@@ -16114,7 +16114,7 @@
         <v>25</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1">
@@ -16122,7 +16122,7 @@
         <v>111</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1">
@@ -16130,7 +16130,7 @@
         <v>10</v>
       </c>
       <c r="B487" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1">
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1">
@@ -16146,7 +16146,7 @@
         <v>16</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="15.75" customHeight="1">
@@ -16154,7 +16154,7 @@
         <v>25</v>
       </c>
       <c r="B491" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1">
@@ -16162,7 +16162,7 @@
         <v>111</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="15.75" customHeight="1">
@@ -16170,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="B493" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="15.75" customHeight="1">
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="15.75" customHeight="1">
@@ -16186,7 +16186,7 @@
         <v>16</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1">
@@ -16194,15 +16194,15 @@
         <v>25</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="40.5" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="28.5" customHeight="1">
       <c r="A498" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1">
@@ -16210,7 +16210,7 @@
         <v>10</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1">
@@ -16218,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1">
@@ -16226,7 +16226,7 @@
         <v>16</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1">
@@ -16234,7 +16234,7 @@
         <v>25</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1">
@@ -16242,7 +16242,7 @@
         <v>111</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1">
@@ -16250,7 +16250,7 @@
         <v>10</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -12326,8 +12326,61 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">an </t>
+    <t>daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>house_painter%1:18:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>a painter of houses a similar buildings</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a painter of houses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> similar buildings</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura, EW_PULLED</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura, EW_PULL...</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>{enwiki:Immigration and Naturalization Service} INS was transferred from the Department of Justice to Department of Homeland Security(2003). The holonym of this synset is already Department of Homeland Security but def says it is in the Department of Justice. This is inconsistancy and I think adding "former" could be the minimal way to solve this.</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
     </r>
     <r>
       <rPr>
@@ -12348,59 +12401,6 @@
       </rPr>
       <t xml:space="preserve"> agency in the Department of Justice that enforces laws and regulations for the admission of foreign-born persons to the United States</t>
     </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>daiki.nomura</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>house_painter%1:18:00::</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>a painter of houses a similar buildings</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a painter of houses </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> similar buildings</t>
-    </r>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>Simple typo</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>daiki.nomura, EW_PULLED</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>daiki.nomura, EW_PULL...</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>{enwiki:Immigration and Naturalization Service} INS was transferred from the Department of Justice to Department of Homeland Security(2003). The holonym of this synset is already Department of Homeland Security but def says it is in the Department of Justice. This is inconsistancy and I think adding "former" could be the minimal way to solve this.</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -12869,7 +12869,7 @@
   <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A484" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B500" sqref="B500"/>
+      <selection activeCell="B499" sqref="B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -16010,7 +16010,7 @@
         <v>10</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1">
@@ -16194,7 +16194,7 @@
         <v>25</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="28.5" customHeight="1">
@@ -16202,7 +16202,7 @@
         <v>111</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1">
@@ -16210,7 +16210,7 @@
         <v>10</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1">
@@ -16218,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1">
@@ -16226,7 +16226,7 @@
         <v>16</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1">
@@ -16234,7 +16234,7 @@
         <v>25</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1">
@@ -16242,7 +16242,7 @@
         <v>111</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1">
@@ -16250,7 +16250,7 @@
         <v>10</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="923">
   <si>
     <t>patches for wordforms</t>
   </si>
@@ -14053,6 +14053,120 @@
       </rPr>
       <t xml:space="preserve"> from one species to another species</t>
     </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>breviary%1:10:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aiki.nomura</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>(Roman Catholic Church) a book of prayers to be recited daily certain priests and members of religious orders</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Simple typo.</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Roman Catholic Church) a book of prayers to be recited daily </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> certain priests and members of religious orders</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Augsburg_Confession%1:10:00::</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the document drawn up in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1555</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to defend the catholicity of Lutheran doctrine and to justify innovations in Lutheran practice; is still in effect today</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the document drawn up in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1530</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to defend the catholicity of Lutheran doctrine and to justify innovations in Lutheran practice; is still in effect today</t>
+    </r>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>daiki.nomura</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>The Augsburg Confession has been compiled by German Protestant princes in 1530. Probably there are confusion between Augsburg Confession(1530) and Peace of Augsburg(1555). ... {enwiki:Augsburg Confession},{enwiki:Peace of Augsburg}</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -14521,10 +14635,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C673"/>
+  <dimension ref="A1:C685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A674" sqref="A674"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A686" sqref="A686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19026,6 +19140,86 @@
       </c>
       <c r="B673" s="9" t="s">
         <v>891</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A675" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B675" s="9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A676" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B676" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A677" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B677" s="9" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A678" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B678" s="9" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A679" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B679" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A681" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B681" s="9" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A682" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B682" s="9" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A683" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A684" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B684" s="9" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A685" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B685" s="9" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/src/Wn31_glitches.xlsx
+++ b/src/Wn31_glitches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="600" windowWidth="20175" windowHeight="7425" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="600" windowWidth="20175" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="patches_for_def" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1214">
   <si>
     <t>patches for wordforms</t>
   </si>
@@ -14160,64 +14160,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>colorcast%1:10:00::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a television program that is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>broadcasted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> in color</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a television program that is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>broadcast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> in color</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>Simple typo.</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -14265,310 +14207,310 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">large diverse order of aquatic birds found along seacoasts and inland waters: shorebirds and coastal diving birds; most feed on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>animal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> life</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">large diverse order of aquatic birds found along seacoasts and inland waters: shorebirds and coastal diving birds; most feed on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>anima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> life</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>souari%1:20:00::</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>large South American evergreen tree trifoliate leaves and drupes with nutlike seeds used as food and a source of cooking oil</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">large South American evergreen tree </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>having</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> trifoliate leaves and drupes with nutlike seeds used as food and a source of cooking oil</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of "having". We can see other example sentences in WordNet using participle "having" for trifoliate leaves. </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>gale%1:19:00::</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>daiki.nomura***</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a strong wind moving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>45-90 knots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; force 7 to 10 on Beaufort scale</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a strong wind moving </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>32-63 mph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; force 7 to 10 on Beaufort scale</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1). "knots" =&gt; "mph".  2). The range that corresponds to Beaufort scale 7-10 should be "32-63 mph". </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>calm_air%1:19:00::</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Beaufort_scale problem. This synset may have no trouble, however change the unit from knots to mph conforming to other Beaufort_scales.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wind moving at less than 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; 0 on the Beaufort scale</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wind moving at less than 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>knot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>; 0 on the Beaufort scale</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>candlenut%1:20:02::</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">seed of candlenut tree; source of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>oil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> used in varnishes</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">seed of candlenut tree; source of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> used in varnishes</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>adjective "Yugoslav" has pertainym link to "Serbia_and_Montenegro" but lacks "Tito's Yugoslavia" .</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>There is already Ionia as a geographical region. I understand their meaning to pertain Attica, but isn't "Ionia" a better place to pertain?</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>I understand that the lexicographer tried to find a synset for "Biedermeier style" furniture. However this is too much extended interpretation for a pertainym link.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>another "Biedermeier" pertainym.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>pt, Bosnian%3:01:00::,  Bosnia%1:15:01::</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>There is already a link to "Bosnia%1:15:00::", but this Bosnia means "Bosnia and Herzegovina". "Bosnia%1:15:01::" is the northern part of "Bosnia and Herzegovina".</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>Charadriiformes%1:05:00::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">large diverse order of aquatic birds found along seacoasts and inland waters: shorebirds and coastal diving birds; most feed on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>animal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> life</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">large diverse order of aquatic birds found along seacoasts and inland waters: shorebirds and coastal diving birds; most feed on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>anima</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> life</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>souari%1:20:00::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>large South American evergreen tree trifoliate leaves and drupes with nutlike seeds used as food and a source of cooking oil</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">large South American evergreen tree </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>having</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> trifoliate leaves and drupes with nutlike seeds used as food and a source of cooking oil</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of "having". We can see other example sentences in WordNet using participle "having" for trifoliate leaves. </t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>gale%1:19:00::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>daiki.nomura***</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a strong wind moving </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>45-90 knots</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; force 7 to 10 on Beaufort scale</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a strong wind moving </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>32-63 mph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; force 7 to 10 on Beaufort scale</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1). "knots" =&gt; "mph".  2). The range that corresponds to Beaufort scale 7-10 should be "32-63 mph". </t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>calm_air%1:19:00::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Beaufort_scale problem. This synset may have no trouble, however change the unit from knots to mph conforming to other Beaufort_scales.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wind moving at less than 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>mph</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; 0 on the Beaufort scale</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wind moving at less than 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>knot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>; 0 on the Beaufort scale</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>candlenut%1:20:02::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">seed of candlenut tree; source of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>oil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> used in varnishes</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">seed of candlenut tree; source of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>soil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> used in varnishes</t>
-    </r>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>adjective "Yugoslav" has pertainym link to "Serbia_and_Montenegro" but lacks "Tito's Yugoslavia" .</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>There is already Ionia as a geographical region. I understand their meaning to pertain Attica, but isn't "Ionia" a better place to pertain?</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>I understand that the lexicographer tried to find a synset for "Biedermeier style" furniture. However this is too much extended interpretation for a pertainym link.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>another "Biedermeier" pertainym.</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>pt, Bosnian%3:01:00::,  Bosnia%1:15:01::</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>There is already a link to "Bosnia%1:15:00::", but this Bosnia means "Bosnia and Herzegovina". "Bosnia%1:15:01::" is the northern part of "Bosnia and Herzegovina".</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -15203,10 +15145,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1189"/>
+  <dimension ref="A1:C1182"/>
   <sheetViews>
-    <sheetView topLeftCell="A1164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1190" sqref="A1190"/>
+    <sheetView tabSelected="1" topLeftCell="A1163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1183" sqref="A1183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -15584,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -15592,7 +15534,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -15600,7 +15542,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -15608,7 +15550,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -15872,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -15880,7 +15822,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -15888,7 +15830,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -15896,7 +15838,7 @@
         <v>6</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -15904,7 +15846,7 @@
         <v>8</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -23169,7 +23111,7 @@
         <v>1</v>
       </c>
       <c r="B1157" s="41" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -23177,7 +23119,7 @@
         <v>12</v>
       </c>
       <c r="B1158" s="41" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -23185,7 +23127,7 @@
         <v>15</v>
       </c>
       <c r="B1159" s="41" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -23193,7 +23135,7 @@
         <v>55</v>
       </c>
       <c r="B1160" s="41" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -23201,7 +23143,7 @@
         <v>8</v>
       </c>
       <c r="B1161" s="41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -23217,7 +23159,7 @@
         <v>1</v>
       </c>
       <c r="B1164" s="41" t="s">
-        <v>1188</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -23225,7 +23167,7 @@
         <v>12</v>
       </c>
       <c r="B1165" s="41" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -23233,7 +23175,7 @@
         <v>15</v>
       </c>
       <c r="B1166" s="41" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -23241,7 +23183,7 @@
         <v>55</v>
       </c>
       <c r="B1167" s="41" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -23249,7 +23191,7 @@
         <v>8</v>
       </c>
       <c r="B1168" s="41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -23265,7 +23207,7 @@
         <v>1</v>
       </c>
       <c r="B1171" s="41" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -23273,14 +23215,14 @@
         <v>12</v>
       </c>
       <c r="B1172" s="41" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1173" s="41" t="s">
+      <c r="B1173" s="16" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -23289,7 +23231,7 @@
         <v>55</v>
       </c>
       <c r="B1174" s="41" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -23297,7 +23239,7 @@
         <v>8</v>
       </c>
       <c r="B1175" s="41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -23313,7 +23255,7 @@
         <v>1</v>
       </c>
       <c r="B1178" s="41" t="s">
-        <v>1195</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -23321,15 +23263,15 @@
         <v>12</v>
       </c>
       <c r="B1179" s="41" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1180" s="16" t="s">
-        <v>1197</v>
+      <c r="B1180" s="41" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -23337,7 +23279,7 @@
         <v>55</v>
       </c>
       <c r="B1181" s="41" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -23345,55 +23287,7 @@
         <v>8</v>
       </c>
       <c r="B1182" s="41" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:2">
-      <c r="A1184" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1184" s="43" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:2">
-      <c r="A1185" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1185" s="41" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:2">
-      <c r="A1186" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1186" s="41" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2">
-      <c r="A1187" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1187" s="41" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:2">
-      <c r="A1188" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1188" s="41" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2">
-      <c r="A1189" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1189" s="41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -28277,7 +28171,7 @@
   </sheetPr>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
@@ -29131,7 +29025,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -29167,7 +29061,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -29334,7 +29228,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
@@ -29378,7 +29272,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
@@ -29406,7 +29300,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
@@ -29414,7 +29308,7 @@
         <v>6</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="12.75">
@@ -29422,7 +29316,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="12.75">
